--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
     <sheet name="2021" sheetId="2" r:id="rId2"/>
     <sheet name="2022" sheetId="3" r:id="rId3"/>
     <sheet name="2023" sheetId="4" r:id="rId4"/>
+    <sheet name="2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
   <si>
     <t>Who</t>
   </si>
@@ -44,7 +45,7 @@
     <t>Atcoder</t>
   </si>
   <si>
-    <t>Active</t>
+    <t>Inactive</t>
   </si>
   <si>
     <t>阳金里</t>
@@ -240,9 +241,6 @@
     <t>Thnieyu</t>
   </si>
   <si>
-    <t>聂nyyyy</t>
-  </si>
-  <si>
     <t>周旭</t>
   </si>
   <si>
@@ -351,19 +349,19 @@
     <t>谢欣</t>
   </si>
   <si>
-    <t xml:space="preserve">      liangcheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        凉城听暖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          邓婷尹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       piontout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ty06</t>
+    <t>liangcheng</t>
+  </si>
+  <si>
+    <t>凉城听暖</t>
+  </si>
+  <si>
+    <t>邓婷尹</t>
+  </si>
+  <si>
+    <t>piontout</t>
+  </si>
+  <si>
+    <t>ty06</t>
   </si>
   <si>
     <t>陈天好</t>
@@ -420,13 +418,182 @@
     <t>字字字</t>
   </si>
   <si>
-    <t xml:space="preserve">                  潘彧达</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               pyd123</t>
+    <t>潘彧达</t>
+  </si>
+  <si>
+    <t>pyd123</t>
   </si>
   <si>
     <t>说等下个版本吧的猕猴桃很想奋斗</t>
+  </si>
+  <si>
+    <t>费峥宇</t>
+  </si>
+  <si>
+    <t>FZY0314</t>
+  </si>
+  <si>
+    <t>郝煵桑</t>
+  </si>
+  <si>
+    <t>李心怡</t>
+  </si>
+  <si>
+    <t>lixinyi</t>
+  </si>
+  <si>
+    <t>暖冬妠</t>
+  </si>
+  <si>
+    <t>欧阳昊</t>
+  </si>
+  <si>
+    <t>Megumi0923</t>
+  </si>
+  <si>
+    <t>ice恋</t>
+  </si>
+  <si>
+    <t>王为</t>
+  </si>
+  <si>
+    <t>ipoem</t>
+  </si>
+  <si>
+    <t>Poem_ww</t>
+  </si>
+  <si>
+    <t>wangweipoem</t>
+  </si>
+  <si>
+    <t>杨富元</t>
+  </si>
+  <si>
+    <t>牛客574889720号</t>
+  </si>
+  <si>
+    <t>王若欣</t>
+  </si>
+  <si>
+    <t>xxxin</t>
+  </si>
+  <si>
+    <t>xxxinn</t>
+  </si>
+  <si>
+    <t>谢金豪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-7
+</t>
+  </si>
+  <si>
+    <t>我是王松大王</t>
+  </si>
+  <si>
+    <t>王松</t>
+  </si>
+  <si>
+    <t>IAEYGFUAS</t>
+  </si>
+  <si>
+    <t>巴巴啵一</t>
+  </si>
+  <si>
+    <t>王海帆</t>
+  </si>
+  <si>
+    <t>miku_daisuki</t>
+  </si>
+  <si>
+    <t>miku39399</t>
+  </si>
+  <si>
+    <t>miku_pointer</t>
+  </si>
+  <si>
+    <t>陈俊鑫</t>
+  </si>
+  <si>
+    <t>Liyxi</t>
+  </si>
+  <si>
+    <t>折纸__</t>
+  </si>
+  <si>
+    <t>Chenjx</t>
+  </si>
+  <si>
+    <t>崔振超</t>
+  </si>
+  <si>
+    <t>yunqi2</t>
+  </si>
+  <si>
+    <t>运气2</t>
+  </si>
+  <si>
+    <t>程虎</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF175CEB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.....net</t>
+    </r>
+  </si>
+  <si>
+    <t>＿＿＿net</t>
+  </si>
+  <si>
+    <t>彭苏杭</t>
+  </si>
+  <si>
+    <t>psh12345</t>
+  </si>
+  <si>
+    <t>龙静怡</t>
+  </si>
+  <si>
+    <t>我是小井</t>
+  </si>
+  <si>
+    <t>湛婧</t>
+  </si>
+  <si>
+    <t>蘸酱1</t>
+  </si>
+  <si>
+    <t>谭志舟</t>
+  </si>
+  <si>
+    <t>我是小舟</t>
+  </si>
+  <si>
+    <t>顾星星</t>
+  </si>
+  <si>
+    <t>louxingxi</t>
+  </si>
+  <si>
+    <t>阿呐</t>
+  </si>
+  <si>
+    <t>郭凌衍</t>
+  </si>
+  <si>
+    <t>卷纸1</t>
+  </si>
+  <si>
+    <t>华彦东</t>
+  </si>
+  <si>
+    <t>huedy</t>
   </si>
 </sst>
 </file>
@@ -438,9 +605,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -456,6 +623,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -466,12 +645,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -655,6 +828,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF175CEB"/>
@@ -662,7 +840,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -975,199 +1155,205 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,17 +1900,16 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
-    <col min="5" max="5" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="23.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,248 +1922,251 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:5">
-      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:5">
-      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="15.5" spans="1:5">
-      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="15.5" spans="1:5">
-      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="12"/>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" ht="15.5" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="15.5" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="15.5" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" ht="15.5" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" ht="15.5" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" ht="15.5" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" ht="15.5" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" ht="15.5" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" ht="15.5" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" ht="15.5" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" ht="15.5" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" ht="15.5" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" ht="15.5" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="15.5" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="25" ht="15.5" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" ht="15.5" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" ht="15.5" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" ht="15.5" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" ht="15.5" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" ht="15.5" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" ht="15.5" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" ht="15.5" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" ht="15.5" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" ht="15.5" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" ht="15.5" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" ht="15.5" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" ht="15.5" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" ht="15.5" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" ht="15.75" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="15.75" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" spans="1:3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1999,12 +2187,12 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2020,312 +2208,312 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2341,12 +2529,12 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2362,219 +2550,219 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2590,12 +2778,13 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="2" width="20.2380952380952" customWidth="1"/>
+    <col min="3" max="3" width="28.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2611,262 +2800,512 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5">
+        <v>2440539709</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2">
-        <v>2440539709</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="2024"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="7.86666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.7619047619048" customWidth="1"/>
+    <col min="3" max="3" width="15.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="12.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13">
+        <v>11447721</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display=".....net"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>Who</t>
   </si>
@@ -834,14 +834,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1155,7 +1155,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2777,8 +2777,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>123</v>
       </c>
@@ -2965,9 +2965,6 @@
         <v>125</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3083,7 +3080,7 @@
   <sheetPr codeName="2024"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -828,11 +828,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
@@ -843,6 +838,11 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF175CEB"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1900,8 +1900,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -2777,8 +2777,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="21600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
     <sheet name="2021" sheetId="2" r:id="rId2"/>
     <sheet name="2022" sheetId="3" r:id="rId3"/>
     <sheet name="2023" sheetId="4" r:id="rId4"/>
-    <sheet name="2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>Who</t>
   </si>
@@ -45,7 +44,7 @@
     <t>Atcoder</t>
   </si>
   <si>
-    <t>Inactive</t>
+    <t>Active</t>
   </si>
   <si>
     <t>阳金里</t>
@@ -241,6 +240,9 @@
     <t>Thnieyu</t>
   </si>
   <si>
+    <t>聂nyyyy</t>
+  </si>
+  <si>
     <t>周旭</t>
   </si>
   <si>
@@ -349,19 +351,19 @@
     <t>谢欣</t>
   </si>
   <si>
-    <t>liangcheng</t>
-  </si>
-  <si>
-    <t>凉城听暖</t>
-  </si>
-  <si>
-    <t>邓婷尹</t>
-  </si>
-  <si>
-    <t>piontout</t>
-  </si>
-  <si>
-    <t>ty06</t>
+    <t xml:space="preserve">      liangcheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        凉城听暖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          邓婷尹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       piontout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ty06</t>
   </si>
   <si>
     <t>陈天好</t>
@@ -418,182 +420,13 @@
     <t>字字字</t>
   </si>
   <si>
-    <t>潘彧达</t>
-  </si>
-  <si>
-    <t>pyd123</t>
+    <t xml:space="preserve">                  潘彧达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               pyd123</t>
   </si>
   <si>
     <t>说等下个版本吧的猕猴桃很想奋斗</t>
-  </si>
-  <si>
-    <t>费峥宇</t>
-  </si>
-  <si>
-    <t>FZY0314</t>
-  </si>
-  <si>
-    <t>郝煵桑</t>
-  </si>
-  <si>
-    <t>李心怡</t>
-  </si>
-  <si>
-    <t>lixinyi</t>
-  </si>
-  <si>
-    <t>暖冬妠</t>
-  </si>
-  <si>
-    <t>欧阳昊</t>
-  </si>
-  <si>
-    <t>Megumi0923</t>
-  </si>
-  <si>
-    <t>ice恋</t>
-  </si>
-  <si>
-    <t>王为</t>
-  </si>
-  <si>
-    <t>ipoem</t>
-  </si>
-  <si>
-    <t>Poem_ww</t>
-  </si>
-  <si>
-    <t>wangweipoem</t>
-  </si>
-  <si>
-    <t>杨富元</t>
-  </si>
-  <si>
-    <t>牛客574889720号</t>
-  </si>
-  <si>
-    <t>王若欣</t>
-  </si>
-  <si>
-    <t>xxxin</t>
-  </si>
-  <si>
-    <t>xxxinn</t>
-  </si>
-  <si>
-    <t>谢金豪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March-7
-</t>
-  </si>
-  <si>
-    <t>我是王松大王</t>
-  </si>
-  <si>
-    <t>王松</t>
-  </si>
-  <si>
-    <t>IAEYGFUAS</t>
-  </si>
-  <si>
-    <t>巴巴啵一</t>
-  </si>
-  <si>
-    <t>王海帆</t>
-  </si>
-  <si>
-    <t>miku_daisuki</t>
-  </si>
-  <si>
-    <t>miku39399</t>
-  </si>
-  <si>
-    <t>miku_pointer</t>
-  </si>
-  <si>
-    <t>陈俊鑫</t>
-  </si>
-  <si>
-    <t>Liyxi</t>
-  </si>
-  <si>
-    <t>折纸__</t>
-  </si>
-  <si>
-    <t>Chenjx</t>
-  </si>
-  <si>
-    <t>崔振超</t>
-  </si>
-  <si>
-    <t>yunqi2</t>
-  </si>
-  <si>
-    <t>运气2</t>
-  </si>
-  <si>
-    <t>程虎</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.....net</t>
-    </r>
-  </si>
-  <si>
-    <t>＿＿＿net</t>
-  </si>
-  <si>
-    <t>彭苏杭</t>
-  </si>
-  <si>
-    <t>psh12345</t>
-  </si>
-  <si>
-    <t>龙静怡</t>
-  </si>
-  <si>
-    <t>我是小井</t>
-  </si>
-  <si>
-    <t>湛婧</t>
-  </si>
-  <si>
-    <t>蘸酱1</t>
-  </si>
-  <si>
-    <t>谭志舟</t>
-  </si>
-  <si>
-    <t>我是小舟</t>
-  </si>
-  <si>
-    <t>顾星星</t>
-  </si>
-  <si>
-    <t>louxingxi</t>
-  </si>
-  <si>
-    <t>阿呐</t>
-  </si>
-  <si>
-    <t>郭凌衍</t>
-  </si>
-  <si>
-    <t>卷纸1</t>
-  </si>
-  <si>
-    <t>华彦东</t>
-  </si>
-  <si>
-    <t>huedy</t>
   </si>
 </sst>
 </file>
@@ -605,9 +438,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -618,18 +451,6 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,6 +471,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -826,13 +653,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1155,205 +975,199 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1901,15 +1715,16 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
+    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="5" max="5" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:5">
+    <row r="1" ht="22.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,251 +1737,248 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="15.5" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" ht="15.5" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="15.5" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="15.5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="15.5" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="15.5" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+    <row r="8" ht="15.5" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" ht="15.5" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="15.5" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" ht="15.5" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" ht="15.5" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" ht="15.5" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" ht="15.5" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" ht="15.5" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" ht="15.5" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" ht="15.5" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" ht="15.5" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" ht="15.5" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" ht="15.5" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" ht="15.5" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" ht="15.5" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="25" ht="15.5" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" ht="15.5" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" ht="15.5" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" ht="15.5" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" ht="15.5" spans="1:3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" ht="15.5" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" ht="15.5" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" ht="15.5" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" ht="15.5" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" ht="15.5" spans="1:3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" ht="15.5" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" ht="15.5" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="15.5" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" ht="15.5" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2187,12 +1999,12 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
+    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2208,312 +2020,312 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2529,12 +2341,12 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
+    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2550,219 +2362,219 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>86</v>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2778,13 +2590,12 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.2380952380952" customWidth="1"/>
-    <col min="3" max="3" width="28.1809523809524" customWidth="1"/>
+    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2800,509 +2611,262 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>103</v>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>107</v>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="2024"/>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="7.86666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.7619047619048" customWidth="1"/>
-    <col min="3" max="3" width="15.7809523809524" customWidth="1"/>
-    <col min="4" max="4" width="12.3714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13">
-        <v>11447721</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display=".....net"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
   <si>
     <t>Who</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>说等下个版本吧的猕猴桃很想奋斗</t>
+  </si>
+  <si>
+    <t>费峥宇</t>
+  </si>
+  <si>
+    <t>FZY0314</t>
+  </si>
+  <si>
+    <t>郝煵桑</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -483,6 +492,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -655,14 +671,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF175CEB"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -975,155 +991,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,7 +1170,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1164,10 +1183,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,17 +1733,17 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81904761904762" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
-    <col min="5" max="5" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="13.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="23.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,21 +1760,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:4">
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1765,14 +1784,14 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1782,12 +1801,12 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:5">
+    <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1797,12 +1816,12 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.5" spans="1:5">
+    <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1812,12 +1831,12 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15.5" spans="1:5">
+    <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1825,157 +1844,157 @@
         <v>19</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:3">
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" ht="15.5" spans="1:3">
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" ht="15.5" spans="1:3">
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" ht="15.5" spans="1:3">
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" ht="15.5" spans="1:3">
+    <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" ht="15.5" spans="1:3">
+    <row r="13" ht="15.75" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" ht="15.5" spans="1:3">
+    <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" ht="15.5" spans="1:3">
+    <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" ht="15.5" spans="1:3">
+    <row r="16" ht="15.75" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" ht="15.5" spans="1:3">
+    <row r="17" ht="15.75" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" ht="15.5" spans="1:3">
+    <row r="18" ht="15.75" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" ht="15.5" spans="1:3">
+    <row r="19" ht="15.75" spans="1:3">
       <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" ht="15.5" spans="1:3">
+    <row r="20" ht="15.75" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" ht="15.5" spans="1:3">
+    <row r="21" ht="15.75" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" ht="15.5" spans="1:3">
+    <row r="22" ht="15.75" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" ht="15.5" spans="1:3">
+    <row r="23" ht="15.75" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="25" ht="15.5" spans="1:3">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" ht="15.5" spans="1:3">
+    <row r="26" ht="15.75" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" ht="15.5" spans="1:3">
+    <row r="27" ht="15.75" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" ht="15.5" spans="1:3">
+    <row r="28" ht="15.75" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" ht="15.5" spans="1:3">
+    <row r="29" ht="15.75" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" ht="15.5" spans="1:3">
+    <row r="30" ht="15.75" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" ht="15.5" spans="1:3">
+    <row r="31" ht="15.75" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" ht="15.5" spans="1:3">
+    <row r="32" ht="15.75" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" ht="15.5" spans="1:3">
+    <row r="33" ht="15.75" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" ht="15.5" spans="1:3">
+    <row r="34" ht="15.75" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" ht="15.5" spans="1:3">
+    <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" ht="15.5" spans="1:3">
+    <row r="36" ht="15.75" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" ht="15.5" spans="1:3">
+    <row r="37" ht="15.75" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" ht="15.5" spans="1:3">
+    <row r="38" ht="15.75" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2004,7 +2023,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2034,7 +2053,7 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2048,7 +2067,7 @@
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -2060,7 +2079,7 @@
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -2073,7 +2092,7 @@
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
@@ -2085,7 +2104,7 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -2097,7 +2116,7 @@
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2109,7 +2128,7 @@
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
@@ -2121,19 +2140,19 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
@@ -2142,10 +2161,10 @@
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
@@ -2157,7 +2176,7 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
@@ -2169,7 +2188,7 @@
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
@@ -2181,7 +2200,7 @@
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2195,7 +2214,7 @@
       <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
@@ -2205,7 +2224,7 @@
       <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="2"/>
@@ -2220,12 +2239,12 @@
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="2"/>
@@ -2346,7 +2365,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2376,7 +2395,7 @@
       <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -2388,7 +2407,7 @@
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -2400,7 +2419,7 @@
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="6" t="s">
@@ -2412,7 +2431,7 @@
       <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="6" t="s">
@@ -2424,7 +2443,7 @@
       <c r="C6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
@@ -2436,7 +2455,7 @@
       <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
@@ -2489,7 +2508,7 @@
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="2"/>
@@ -2589,13 +2608,13 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.2454545454545" customWidth="1"/>
+    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2765,6 +2784,20 @@
       </c>
       <c r="D13" s="3"/>
     </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
@@ -2778,7 +2811,7 @@
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="2"/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2021" sheetId="2" r:id="rId2"/>
     <sheet name="2022" sheetId="3" r:id="rId3"/>
     <sheet name="2023" sheetId="4" r:id="rId4"/>
+    <sheet name="2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>Who</t>
   </si>
@@ -44,7 +45,7 @@
     <t>Atcoder</t>
   </si>
   <si>
-    <t>Active</t>
+    <t>Inactive</t>
   </si>
   <si>
     <t>阳金里</t>
@@ -240,9 +241,6 @@
     <t>Thnieyu</t>
   </si>
   <si>
-    <t>聂nyyyy</t>
-  </si>
-  <si>
     <t>周旭</t>
   </si>
   <si>
@@ -351,19 +349,19 @@
     <t>谢欣</t>
   </si>
   <si>
-    <t xml:space="preserve">      liangcheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        凉城听暖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          邓婷尹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       piontout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ty06</t>
+    <t>liangcheng</t>
+  </si>
+  <si>
+    <t>凉城听暖</t>
+  </si>
+  <si>
+    <t>邓婷尹</t>
+  </si>
+  <si>
+    <t>piontout</t>
+  </si>
+  <si>
+    <t>ty06</t>
   </si>
   <si>
     <t>陈天好</t>
@@ -420,10 +418,10 @@
     <t>字字字</t>
   </si>
   <si>
-    <t xml:space="preserve">                  潘彧达</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               pyd123</t>
+    <t>潘彧达</t>
+  </si>
+  <si>
+    <t>pyd123</t>
   </si>
   <si>
     <t>说等下个版本吧的猕猴桃很想奋斗</t>
@@ -436,6 +434,166 @@
   </si>
   <si>
     <t>郝煵桑</t>
+  </si>
+  <si>
+    <t>李心怡</t>
+  </si>
+  <si>
+    <t>lixinyi</t>
+  </si>
+  <si>
+    <t>暖冬妠</t>
+  </si>
+  <si>
+    <t>欧阳昊</t>
+  </si>
+  <si>
+    <t>Megumi0923</t>
+  </si>
+  <si>
+    <t>ice恋</t>
+  </si>
+  <si>
+    <t>王为</t>
+  </si>
+  <si>
+    <t>ipoem</t>
+  </si>
+  <si>
+    <t>Poem_ww</t>
+  </si>
+  <si>
+    <t>wangweipoem</t>
+  </si>
+  <si>
+    <t>杨富元</t>
+  </si>
+  <si>
+    <t>牛客574889720号</t>
+  </si>
+  <si>
+    <t>王若欣</t>
+  </si>
+  <si>
+    <t>xxxin</t>
+  </si>
+  <si>
+    <t>xxxinn</t>
+  </si>
+  <si>
+    <t>谢金豪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-7
+</t>
+  </si>
+  <si>
+    <t>我是王松大王</t>
+  </si>
+  <si>
+    <t>王松</t>
+  </si>
+  <si>
+    <t>IAEYGFUAS</t>
+  </si>
+  <si>
+    <t>巴巴啵一</t>
+  </si>
+  <si>
+    <t>王海帆</t>
+  </si>
+  <si>
+    <t>miku_daisuki</t>
+  </si>
+  <si>
+    <t>miku39399</t>
+  </si>
+  <si>
+    <t>miku_pointer</t>
+  </si>
+  <si>
+    <t>陈俊鑫</t>
+  </si>
+  <si>
+    <t>Liyxi</t>
+  </si>
+  <si>
+    <t>折纸__</t>
+  </si>
+  <si>
+    <t>Chenjx</t>
+  </si>
+  <si>
+    <t>崔振超</t>
+  </si>
+  <si>
+    <t>yunqi2</t>
+  </si>
+  <si>
+    <t>运气2</t>
+  </si>
+  <si>
+    <t>程虎</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.....net</t>
+    </r>
+  </si>
+  <si>
+    <t>＿＿＿net</t>
+  </si>
+  <si>
+    <t>彭苏杭</t>
+  </si>
+  <si>
+    <t>psh12345</t>
+  </si>
+  <si>
+    <t>龙静怡</t>
+  </si>
+  <si>
+    <t>我是小井</t>
+  </si>
+  <si>
+    <t>湛婧</t>
+  </si>
+  <si>
+    <t>蘸酱1</t>
+  </si>
+  <si>
+    <t>谭志舟</t>
+  </si>
+  <si>
+    <t>我是小舟</t>
+  </si>
+  <si>
+    <t>顾星星</t>
+  </si>
+  <si>
+    <t>louxingxi</t>
+  </si>
+  <si>
+    <t>阿呐</t>
+  </si>
+  <si>
+    <t>郭凌衍</t>
+  </si>
+  <si>
+    <t>卷纸1</t>
+  </si>
+  <si>
+    <t>华彦东</t>
+  </si>
+  <si>
+    <t>huedy</t>
   </si>
 </sst>
 </file>
@@ -447,7 +605,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -460,6 +618,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,13 +651,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -991,7 +1148,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,45 +1303,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,13 +1891,12 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81904761904762" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="13.9047619047619" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:5">
@@ -1756,35 +1912,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E3">
@@ -1792,212 +1951,212 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2018,12 +2177,12 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2039,312 +2198,312 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2360,12 +2519,12 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
+    <col min="1" max="3" width="20.2380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2381,219 +2540,219 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2609,12 +2768,13 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="20.247619047619" customWidth="1"/>
+    <col min="1" max="2" width="20.2380952380952" customWidth="1"/>
+    <col min="3" max="3" width="28.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2630,273 +2790,503 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>2440539709</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2">
-        <v>2440539709</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
+      <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="2024"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="7.86666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.7619047619048" customWidth="1"/>
+    <col min="3" max="3" width="15.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="12.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>125</v>
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13">
+        <v>11447721</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="13545" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>Who</t>
   </si>
@@ -484,17 +484,13 @@
     <t>谢金豪</t>
   </si>
   <si>
-    <t xml:space="preserve">March-7
-</t>
-  </si>
-  <si>
     <t>我是王松大王</t>
   </si>
   <si>
     <t>王松</t>
   </si>
   <si>
-    <t>IAEYGFUAS</t>
+    <t>iaeygfuas</t>
   </si>
   <si>
     <t>巴巴啵一</t>
@@ -536,16 +532,7 @@
     <t>程虎</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.....net</t>
-    </r>
+    <t>.....net</t>
   </si>
   <si>
     <t>＿＿＿net</t>
@@ -828,14 +815,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1148,7 +1135,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,6 +1292,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1917,16 +1907,16 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2">
@@ -1934,16 +1924,16 @@
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E3">
@@ -1951,212 +1941,212 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2203,307 +2193,307 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2545,214 +2535,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2767,7 +2757,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2795,269 +2785,269 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3070,8 +3060,8 @@
   <sheetPr codeName="2024"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3158,80 +3148,78 @@
       <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>153</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
       </c>
       <c r="C13">
         <v>11447721</v>
@@ -3239,53 +3227,53 @@
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
         <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
         <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
         <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
         <v>169</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
         <v>172</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
         <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>Who</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>谢金豪</t>
+  </si>
+  <si>
+    <t>March-7</t>
   </si>
   <si>
     <t>我是王松大王</t>
@@ -1293,7 +1296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3061,7 +3064,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3148,78 +3151,80 @@
       <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>11447721</v>
@@ -3227,53 +3232,53 @@
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="13545" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1909,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1922,11 +1922,8 @@
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
+    </row>
+    <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1939,11 +1936,8 @@
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:5">
+    </row>
+    <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1954,11 +1948,8 @@
         <v>13</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:5">
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1969,11 +1960,8 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:5">
+    </row>
+    <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1984,11 +1972,8 @@
         <v>17</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:5">
+    </row>
+    <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1997,9 +1982,6 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="12"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="8"/>
@@ -3063,7 +3045,7 @@
   <sheetPr codeName="2024"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -508,7 +508,7 @@
     <t>王松</t>
   </si>
   <si>
-    <t>IAEYGFUAS</t>
+    <t>iaeygfuas</t>
   </si>
   <si>
     <t>巴巴啵一</t>
@@ -897,14 +897,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1217,7 +1217,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,7 +1375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3140,7 +3140,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="13545" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>Who</t>
   </si>
@@ -436,24 +436,6 @@
     <t>郝煵桑</t>
   </si>
   <si>
-    <t>潘帅</t>
-  </si>
-  <si>
-    <t>pass of gold</t>
-  </si>
-  <si>
-    <t>电子羊想做梦</t>
-  </si>
-  <si>
-    <t>胡彬秦</t>
-  </si>
-  <si>
-    <t>hubinqin</t>
-  </si>
-  <si>
-    <t>牛客157525874号</t>
-  </si>
-  <si>
     <t>李心怡</t>
   </si>
   <si>
@@ -502,6 +484,9 @@
     <t>谢金豪</t>
   </si>
   <si>
+    <t>March-7</t>
+  </si>
+  <si>
     <t>我是王松大王</t>
   </si>
   <si>
@@ -550,16 +535,7 @@
     <t>程虎</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.....net</t>
-    </r>
+    <t>.....net</t>
   </si>
   <si>
     <t>＿＿＿net</t>
@@ -608,54 +584,6 @@
   </si>
   <si>
     <t>huedy</t>
-  </si>
-  <si>
-    <t>刘悦</t>
-  </si>
-  <si>
-    <t>Vaeeee</t>
-  </si>
-  <si>
-    <t>混分大王</t>
-  </si>
-  <si>
-    <t>邓旭</t>
-  </si>
-  <si>
-    <t>Ecoch</t>
-  </si>
-  <si>
-    <t>Echo_10010</t>
-  </si>
-  <si>
-    <t>伍燕</t>
-  </si>
-  <si>
-    <t>邓俊成</t>
-  </si>
-  <si>
-    <t>chen8582</t>
-  </si>
-  <si>
-    <t>牛客chen8582</t>
-  </si>
-  <si>
-    <t>chen5852</t>
-  </si>
-  <si>
-    <t>罗宇轩</t>
-  </si>
-  <si>
-    <t>loveherandyourself</t>
-  </si>
-  <si>
-    <t>还是想躺平的奶酪很想拿</t>
-  </si>
-  <si>
-    <t>夏鲁湘</t>
-  </si>
-  <si>
-    <t>Haixiang</t>
   </si>
 </sst>
 </file>
@@ -669,7 +597,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -686,13 +614,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -897,14 +818,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1220,152 +1141,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1375,50 +1296,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1992,228 +1910,228 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2234,7 +2152,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2260,307 +2178,307 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2602,214 +2520,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2825,7 +2743,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2852,281 +2770,269 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3137,10 +3043,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3170,135 +3076,137 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>11447721</v>
@@ -3306,113 +3214,53 @@
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375"/>
+    <workbookView windowWidth="13545" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
   <si>
     <t>Who</t>
   </si>
@@ -584,6 +584,24 @@
   </si>
   <si>
     <t>huedy</t>
+  </si>
+  <si>
+    <t>刘悦</t>
+  </si>
+  <si>
+    <t>Vaeeee</t>
+  </si>
+  <si>
+    <t>混分大王</t>
+  </si>
+  <si>
+    <t>邓旭</t>
+  </si>
+  <si>
+    <t>Ecoch</t>
+  </si>
+  <si>
+    <t>Echo_10010</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -614,6 +632,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -818,14 +843,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1141,152 +1166,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1300,43 +1325,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,7 +1911,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1910,228 +1938,228 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2178,307 +2206,307 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2520,214 +2548,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2770,269 +2798,269 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3043,10 +3071,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3263,6 +3291,28 @@
         <v>175</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="188">
   <si>
     <t>Who</t>
   </si>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>Echo_10010</t>
+  </si>
+  <si>
+    <t>邓俊成</t>
+  </si>
+  <si>
+    <t>chen8582</t>
+  </si>
+  <si>
+    <t>牛客chen8582</t>
+  </si>
+  <si>
+    <t>chen5852</t>
+  </si>
+  <si>
+    <t>夏鲁湘</t>
+  </si>
+  <si>
+    <t>Haixiang</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1938,228 +1959,228 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2206,307 +2227,307 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2548,214 +2569,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2798,269 +2819,269 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3071,10 +3092,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3313,6 +3334,29 @@
         <v>181</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="13785" windowHeight="12960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
   <si>
     <t>Who</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>Haixiang</t>
+  </si>
+  <si>
+    <t>罗宇轩</t>
+  </si>
+  <si>
+    <t>loveherandyourself</t>
+  </si>
+  <si>
+    <t>还是想躺平的奶酪很想拿</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1356,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1959,228 +1971,228 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2227,307 +2239,307 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2569,214 +2581,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2819,269 +2831,269 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3092,10 +3104,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3357,6 +3369,17 @@
         <v>187</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13785" windowHeight="12960" activeTab="4"/>
+    <workbookView windowWidth="13785" windowHeight="11775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
   <si>
     <t>Who</t>
   </si>
@@ -434,6 +434,24 @@
   </si>
   <si>
     <t>郝煵桑</t>
+  </si>
+  <si>
+    <t>潘帅</t>
+  </si>
+  <si>
+    <t>pass of god</t>
+  </si>
+  <si>
+    <t>电子羊想做梦</t>
+  </si>
+  <si>
+    <t>胡彬秦</t>
+  </si>
+  <si>
+    <t>hubinqin</t>
+  </si>
+  <si>
+    <t>牛客157525874号</t>
   </si>
   <si>
     <t>李心怡</t>
@@ -870,14 +888,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1357,9 +1375,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,6 +1395,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1971,7 +1989,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1985,13 +2003,13 @@
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1999,200 +2017,200 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>2375585710</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="14"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="15.75" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2239,13 +2257,13 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2253,62 +2271,62 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -2316,44 +2334,44 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2362,37 +2380,37 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2400,146 +2418,146 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2581,214 +2599,214 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2803,8 +2821,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2831,269 +2849,281 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2440539709</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3106,7 +3136,7 @@
   <sheetPr codeName="2024"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3137,137 +3167,137 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C13">
         <v>11447721</v>
@@ -3275,109 +3305,109 @@
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>190</v>
+      <c r="A24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -439,7 +439,7 @@
     <t>潘帅</t>
   </si>
   <si>
-    <t>pass of god</t>
+    <t>pass-of-god</t>
   </si>
   <si>
     <t>电子羊想做梦</t>
@@ -2822,7 +2822,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/info/id.xlsx
+++ b/info/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13785" windowHeight="11775" activeTab="3"/>
+    <workbookView windowWidth="21000" windowHeight="11775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="189">
   <si>
     <t>Who</t>
   </si>
@@ -565,24 +565,6 @@
     <t>psh12345</t>
   </si>
   <si>
-    <t>龙静怡</t>
-  </si>
-  <si>
-    <t>我是小井</t>
-  </si>
-  <si>
-    <t>湛婧</t>
-  </si>
-  <si>
-    <t>蘸酱1</t>
-  </si>
-  <si>
-    <t>谭志舟</t>
-  </si>
-  <si>
-    <t>我是小舟</t>
-  </si>
-  <si>
     <t>顾星星</t>
   </si>
   <si>
@@ -590,12 +572,6 @@
   </si>
   <si>
     <t>阿呐</t>
-  </si>
-  <si>
-    <t>郭凌衍</t>
-  </si>
-  <si>
-    <t>卷纸1</t>
   </si>
   <si>
     <t>华彦东</t>
@@ -888,14 +864,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1356,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1395,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1691,13 +1664,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,13 +1958,13 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2012,7 +1978,7 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2026,7 +1992,7 @@
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="10" t="s">
@@ -2038,7 +2004,7 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="10" t="s">
@@ -2050,7 +2016,7 @@
       <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="10" t="s">
@@ -2060,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="10"/>
@@ -2069,7 +2035,7 @@
     </row>
     <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="10"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" ht="15.75" spans="1:3">
@@ -2084,7 +2050,7 @@
     </row>
     <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="10"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
@@ -2119,7 +2085,7 @@
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" s="10"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="10"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
@@ -2140,7 +2106,7 @@
     <row r="23" ht="15.75" spans="1:3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="25" ht="15.75" spans="1:3">
       <c r="A25" s="10"/>
@@ -2266,7 +2232,7 @@
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2280,7 +2246,7 @@
       <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
@@ -2292,7 +2258,7 @@
       <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -2305,7 +2271,7 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="6" t="s">
@@ -2317,7 +2283,7 @@
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
@@ -2329,7 +2295,7 @@
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2341,7 +2307,7 @@
       <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
@@ -2353,19 +2319,19 @@
       <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="6" t="s">
@@ -2374,10 +2340,10 @@
       <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="6" t="s">
@@ -2389,7 +2355,7 @@
       <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2401,7 +2367,7 @@
       <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="6" t="s">
@@ -2413,7 +2379,7 @@
       <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2427,7 +2393,7 @@
       <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -2437,7 +2403,7 @@
       <c r="C16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="6"/>
@@ -2452,12 +2418,12 @@
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="6"/>
@@ -2608,7 +2574,7 @@
       <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -2620,7 +2586,7 @@
       <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
@@ -2632,7 +2598,7 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="10" t="s">
@@ -2644,7 +2610,7 @@
       <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="10" t="s">
@@ -2656,7 +2622,7 @@
       <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="10" t="s">
@@ -2668,7 +2634,7 @@
       <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="6" t="s">
@@ -2721,7 +2687,7 @@
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="6"/>
@@ -2821,7 +2787,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3013,32 +2979,32 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="6"/>
@@ -3134,10 +3100,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3307,107 +3273,75 @@
       <c r="A14" t="s">
         <v>169</v>
       </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" s="4" t="s">
         <v>179</v>
       </c>
     </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
+      <c r="A19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
